--- a/Code/Results/Cases/Case_1_124/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_124/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9178310406019933</v>
+        <v>1.007280975910814</v>
       </c>
       <c r="D2">
-        <v>1.0281106745813</v>
+        <v>1.032557869945718</v>
       </c>
       <c r="E2">
-        <v>0.9355382793428565</v>
+        <v>1.009980696467818</v>
       </c>
       <c r="F2">
-        <v>0.9049972427066219</v>
+        <v>1.019235045214043</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041006252167728</v>
+        <v>1.031824640371513</v>
       </c>
       <c r="J2">
-        <v>0.9427816161347977</v>
+        <v>1.012553531049677</v>
       </c>
       <c r="K2">
-        <v>1.039191796338514</v>
+        <v>1.035362755253459</v>
       </c>
       <c r="L2">
-        <v>0.9479752354131816</v>
+        <v>1.012852271110154</v>
       </c>
       <c r="M2">
-        <v>0.9179605492086095</v>
+        <v>1.022078895016406</v>
       </c>
       <c r="N2">
-        <v>0.9848881644840225</v>
+        <v>1.00828416421713</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9307011151415815</v>
+        <v>1.009231370332541</v>
       </c>
       <c r="D3">
-        <v>1.033173455451446</v>
+        <v>1.033190643017001</v>
       </c>
       <c r="E3">
-        <v>0.9462544041435212</v>
+        <v>1.011657959203368</v>
       </c>
       <c r="F3">
-        <v>0.9243645562342245</v>
+        <v>1.021653614723384</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044582238900185</v>
+        <v>1.032103544889807</v>
       </c>
       <c r="J3">
-        <v>0.9532774011923214</v>
+        <v>1.014129963555196</v>
       </c>
       <c r="K3">
-        <v>1.043398766389509</v>
+        <v>1.035804796420873</v>
       </c>
       <c r="L3">
-        <v>0.9576245177015571</v>
+        <v>1.014331060234558</v>
       </c>
       <c r="M3">
-        <v>0.936066324071623</v>
+        <v>1.024299017094116</v>
       </c>
       <c r="N3">
-        <v>0.9884066557738823</v>
+        <v>1.008809098177585</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9384537023452144</v>
+        <v>1.010483495590752</v>
       </c>
       <c r="D4">
-        <v>1.036220035783591</v>
+        <v>1.033593845226922</v>
       </c>
       <c r="E4">
-        <v>0.9527190007681504</v>
+        <v>1.012735060703889</v>
       </c>
       <c r="F4">
-        <v>0.935801586797431</v>
+        <v>1.023191958683203</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046683400934041</v>
+        <v>1.032276666823106</v>
       </c>
       <c r="J4">
-        <v>0.9595744888703637</v>
+        <v>1.015140085664442</v>
       </c>
       <c r="K4">
-        <v>1.045900119454457</v>
+        <v>1.036083910111618</v>
       </c>
       <c r="L4">
-        <v>0.9634236733939929</v>
+        <v>1.015279319716399</v>
       </c>
       <c r="M4">
-        <v>0.946741991371634</v>
+        <v>1.025708751043483</v>
       </c>
       <c r="N4">
-        <v>0.9905177789668961</v>
+        <v>1.009145302381481</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9415937359249571</v>
+        <v>1.011007560670793</v>
       </c>
       <c r="D5">
-        <v>1.037452492349402</v>
+        <v>1.033761865532169</v>
       </c>
       <c r="E5">
-        <v>0.9553394443539361</v>
+        <v>1.01318594758285</v>
       </c>
       <c r="F5">
-        <v>0.9403849086172738</v>
+        <v>1.023832383872346</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047521928299592</v>
+        <v>1.032347696831334</v>
       </c>
       <c r="J5">
-        <v>0.9621193875401611</v>
+        <v>1.015562400652198</v>
       </c>
       <c r="K5">
-        <v>1.04690516271684</v>
+        <v>1.036199602500027</v>
       </c>
       <c r="L5">
-        <v>0.9657695228603737</v>
+        <v>1.015675939839855</v>
       </c>
       <c r="M5">
-        <v>0.951016110405415</v>
+        <v>1.026295055448888</v>
       </c>
       <c r="N5">
-        <v>0.9913709496097425</v>
+        <v>1.009285826336596</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9421144302938995</v>
+        <v>1.011095418224029</v>
       </c>
       <c r="D6">
-        <v>1.037656754679694</v>
+        <v>1.03378998999512</v>
       </c>
       <c r="E6">
-        <v>0.9557740956818134</v>
+        <v>1.013261541533608</v>
       </c>
       <c r="F6">
-        <v>0.9411421931255062</v>
+        <v>1.023939547253839</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047660243255751</v>
+        <v>1.032359520674142</v>
       </c>
       <c r="J6">
-        <v>0.9625410741694376</v>
+        <v>1.015633173041526</v>
       </c>
       <c r="K6">
-        <v>1.047071340710402</v>
+        <v>1.036218931423452</v>
       </c>
       <c r="L6">
-        <v>0.966158351047142</v>
+        <v>1.015742416152548</v>
       </c>
       <c r="M6">
-        <v>0.9517220611128142</v>
+        <v>1.026393128454254</v>
       </c>
       <c r="N6">
-        <v>0.9915123165886557</v>
+        <v>1.009309373423025</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9384961066560457</v>
+        <v>1.010490507264614</v>
       </c>
       <c r="D7">
-        <v>1.036236686325868</v>
+        <v>1.033596096149165</v>
       </c>
       <c r="E7">
-        <v>0.9527543802433223</v>
+        <v>1.012741092998537</v>
       </c>
       <c r="F7">
-        <v>0.9358636705395995</v>
+        <v>1.023200540703013</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046694774462703</v>
+        <v>1.032277622796263</v>
       </c>
       <c r="J7">
-        <v>0.9596088781079403</v>
+        <v>1.015145737803643</v>
       </c>
       <c r="K7">
-        <v>1.045913724502328</v>
+        <v>1.036085462458968</v>
       </c>
       <c r="L7">
-        <v>0.9634553643904903</v>
+        <v>1.015284627297653</v>
       </c>
       <c r="M7">
-        <v>0.9467999033585978</v>
+        <v>1.025716610114044</v>
       </c>
       <c r="N7">
-        <v>0.9905293079998496</v>
+        <v>1.009147183260029</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9223124438453973</v>
+        <v>1.007942199917082</v>
       </c>
       <c r="D8">
-        <v>1.029873718338556</v>
+        <v>1.032773017121833</v>
       </c>
       <c r="E8">
-        <v>0.939267479849086</v>
+        <v>1.010549255383179</v>
       </c>
       <c r="F8">
-        <v>0.9117951939178091</v>
+        <v>1.020057976543921</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042263073033623</v>
+        <v>1.031920424327065</v>
       </c>
       <c r="J8">
-        <v>0.9464421119029067</v>
+        <v>1.013088374342414</v>
       </c>
       <c r="K8">
-        <v>1.040663682414703</v>
+        <v>1.035513582771571</v>
       </c>
       <c r="L8">
-        <v>0.951338197345316</v>
+        <v>1.013353839986636</v>
       </c>
       <c r="M8">
-        <v>0.9243191884470617</v>
+        <v>1.022834798766358</v>
       </c>
       <c r="N8">
-        <v>0.9861151961756999</v>
+        <v>1.008462293030155</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.888170002445285</v>
+        <v>1.00337379917891</v>
       </c>
       <c r="D9">
-        <v>1.016467613330681</v>
+        <v>1.031274382094596</v>
       </c>
       <c r="E9">
-        <v>0.9109116014460578</v>
+        <v>1.006622461135669</v>
       </c>
       <c r="F9">
-        <v>0.8584822286363089</v>
+        <v>1.014312574460263</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032415792128026</v>
+        <v>1.031234293847877</v>
       </c>
       <c r="J9">
-        <v>0.9183999134821184</v>
+        <v>1.009385164455902</v>
       </c>
       <c r="K9">
-        <v>1.029299047805941</v>
+        <v>1.034452452900573</v>
       </c>
       <c r="L9">
-        <v>0.9256368285763671</v>
+        <v>1.009883947749325</v>
       </c>
       <c r="M9">
-        <v>0.8743812439624742</v>
+        <v>1.017547561299422</v>
       </c>
       <c r="N9">
-        <v>0.9767194157766581</v>
+        <v>1.007228308149759</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.8586164462749137</v>
+        <v>1.000272803540536</v>
       </c>
       <c r="D10">
-        <v>1.004961621868502</v>
+        <v>1.030242168666808</v>
       </c>
       <c r="E10">
-        <v>0.8864596382827371</v>
+        <v>1.003958771814581</v>
       </c>
       <c r="F10">
-        <v>0.8091773966612404</v>
+        <v>1.010336962073828</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023451564427924</v>
+        <v>1.030738103098054</v>
       </c>
       <c r="J10">
-        <v>0.893828822546247</v>
+        <v>1.006861409425307</v>
       </c>
       <c r="K10">
-        <v>1.019241866855691</v>
+        <v>1.03370846622473</v>
       </c>
       <c r="L10">
-        <v>0.9032336922955405</v>
+        <v>1.007522896789279</v>
       </c>
       <c r="M10">
-        <v>0.8281264029507964</v>
+        <v>1.013876829237041</v>
       </c>
       <c r="N10">
-        <v>0.968499742771828</v>
+        <v>1.006386549387825</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.8425362789068876</v>
+        <v>0.998916204734638</v>
       </c>
       <c r="D11">
-        <v>0.9987514448597797</v>
+        <v>1.02978718622272</v>
       </c>
       <c r="E11">
-        <v>0.8731832419311342</v>
+        <v>1.002793920926661</v>
       </c>
       <c r="F11">
-        <v>0.7808321135180777</v>
+        <v>1.00857967168641</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.018415109104241</v>
+        <v>1.030513891376141</v>
       </c>
       <c r="J11">
-        <v>0.8803255285846142</v>
+        <v>1.005754956427701</v>
       </c>
       <c r="K11">
-        <v>1.013696945575472</v>
+        <v>1.033377475559993</v>
       </c>
       <c r="L11">
-        <v>0.8909711843027573</v>
+        <v>1.006488653839517</v>
       </c>
       <c r="M11">
-        <v>0.8015394384879085</v>
+        <v>1.012251495084205</v>
       </c>
       <c r="N11">
-        <v>0.9639902179498601</v>
+        <v>1.006017325018511</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.8356851840470576</v>
+        <v>0.9984101612681098</v>
       </c>
       <c r="D12">
-        <v>0.9961156161148872</v>
+        <v>1.029616964015273</v>
       </c>
       <c r="E12">
-        <v>0.8675309193496122</v>
+        <v>1.002359471083953</v>
       </c>
       <c r="F12">
-        <v>0.7683648771661277</v>
+        <v>1.00792143350884</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.016233438161994</v>
+        <v>1.030429188375601</v>
       </c>
       <c r="J12">
-        <v>0.8745386788894614</v>
+        <v>1.005341865518827</v>
       </c>
       <c r="K12">
-        <v>1.011317615091395</v>
+        <v>1.033253187668991</v>
       </c>
       <c r="L12">
-        <v>0.8857276634866298</v>
+        <v>1.006102654443775</v>
       </c>
       <c r="M12">
-        <v>0.7898517574880941</v>
+        <v>1.011642268864958</v>
       </c>
       <c r="N12">
-        <v>0.9620596667531389</v>
+        <v>1.005879448815885</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.8372070123614404</v>
+        <v>0.998518807271824</v>
       </c>
       <c r="D13">
-        <v>0.9967006387286965</v>
+        <v>1.029653532789806</v>
       </c>
       <c r="E13">
-        <v>0.8687862983194305</v>
+        <v>1.00245274309825</v>
       </c>
       <c r="F13">
-        <v>0.7711561859257638</v>
+        <v>1.008062878813373</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.016719990960178</v>
+        <v>1.030447421999275</v>
       </c>
       <c r="J13">
-        <v>0.8758259891643928</v>
+        <v>1.005430571071211</v>
       </c>
       <c r="K13">
-        <v>1.011847076054456</v>
+        <v>1.033279908881378</v>
       </c>
       <c r="L13">
-        <v>0.8868934811475478</v>
+        <v>1.006185536491193</v>
       </c>
       <c r="M13">
-        <v>0.7924680914065729</v>
+        <v>1.011773200944679</v>
       </c>
       <c r="N13">
-        <v>0.962489014589585</v>
+        <v>1.005909057054694</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.8419920405380998</v>
+        <v>0.9988744190922028</v>
       </c>
       <c r="D14">
-        <v>0.9985418540371246</v>
+        <v>1.029773140612609</v>
       </c>
       <c r="E14">
-        <v>0.8727341559493226</v>
+        <v>1.002758045626582</v>
       </c>
       <c r="F14">
-        <v>0.7798508497393836</v>
+        <v>1.008525374473934</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.018242611930505</v>
+        <v>1.030506918872696</v>
       </c>
       <c r="J14">
-        <v>0.8798666131576072</v>
+        <v>1.005720853467221</v>
       </c>
       <c r="K14">
-        <v>1.013508326382161</v>
+        <v>1.033367229376763</v>
       </c>
       <c r="L14">
-        <v>0.8905550946693971</v>
+        <v>1.006456784742672</v>
       </c>
       <c r="M14">
-        <v>0.8006193588508628</v>
+        <v>1.012201249228042</v>
       </c>
       <c r="N14">
-        <v>0.9638370726829879</v>
+        <v>1.006005943124385</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.8448038875171098</v>
+        <v>0.9990932375086428</v>
       </c>
       <c r="D15">
-        <v>0.9996251200429053</v>
+        <v>1.029846672603907</v>
       </c>
       <c r="E15">
-        <v>0.8750545497394356</v>
+        <v>1.002945916168736</v>
       </c>
       <c r="F15">
-        <v>0.7849043335857472</v>
+        <v>1.008809600519427</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.019132358317596</v>
+        <v>1.030543388131654</v>
       </c>
       <c r="J15">
-        <v>0.8822362328492869</v>
+        <v>1.005899425440834</v>
       </c>
       <c r="K15">
-        <v>1.014482142571085</v>
+        <v>1.03342085195574</v>
       </c>
       <c r="L15">
-        <v>0.8927040584980559</v>
+        <v>1.00662366502538</v>
       </c>
       <c r="M15">
-        <v>0.8053580244755496</v>
+        <v>1.012464250975716</v>
       </c>
       <c r="N15">
-        <v>0.9646279250853594</v>
+        <v>1.006065540565665</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.8595908760070085</v>
+        <v>1.000362539562343</v>
       </c>
       <c r="D16">
-        <v>1.005339086776982</v>
+        <v>1.030272193930344</v>
       </c>
       <c r="E16">
-        <v>0.8872647088327787</v>
+        <v>1.004035833441335</v>
       </c>
       <c r="F16">
-        <v>0.8108574170474713</v>
+        <v>1.010452822751194</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023753122046545</v>
+        <v>1.030752784884015</v>
       </c>
       <c r="J16">
-        <v>0.8946438234768924</v>
+        <v>1.006934548893071</v>
       </c>
       <c r="K16">
-        <v>1.01957621041383</v>
+        <v>1.03373024547212</v>
       </c>
       <c r="L16">
-        <v>0.9039749664317798</v>
+        <v>1.007591281406489</v>
       </c>
       <c r="M16">
-        <v>0.8297025895077016</v>
+        <v>1.013983931713174</v>
       </c>
       <c r="N16">
-        <v>0.96877211194736</v>
+        <v>1.006410952254793</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.8678255479714675</v>
+        <v>1.00115498896606</v>
       </c>
       <c r="D17">
-        <v>1.008534277758026</v>
+        <v>1.030536952482703</v>
       </c>
       <c r="E17">
-        <v>0.8940710510286982</v>
+        <v>1.004716407142918</v>
       </c>
       <c r="F17">
-        <v>0.8248977105629778</v>
+        <v>1.011473898474637</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026285258215303</v>
+        <v>1.030881618362493</v>
       </c>
       <c r="J17">
-        <v>0.9015173583590547</v>
+        <v>1.007580162315451</v>
       </c>
       <c r="K17">
-        <v>1.022394306739796</v>
+        <v>1.033921942838366</v>
       </c>
       <c r="L17">
-        <v>0.9102317754018212</v>
+        <v>1.008195023823701</v>
       </c>
       <c r="M17">
-        <v>0.8428757216826996</v>
+        <v>1.014927501793225</v>
       </c>
       <c r="N17">
-        <v>0.9710700115490388</v>
+        <v>1.006626339018693</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.8723458587201309</v>
+        <v>1.001615879541936</v>
       </c>
       <c r="D18">
-        <v>1.010292254968839</v>
+        <v>1.03069060825557</v>
       </c>
       <c r="E18">
-        <v>0.8978096317150491</v>
+        <v>1.005112272512519</v>
       </c>
       <c r="F18">
-        <v>0.8324905545095048</v>
+        <v>1.01206602658349</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027662909780326</v>
+        <v>1.030955862909642</v>
       </c>
       <c r="J18">
-        <v>0.905280331623297</v>
+        <v>1.007955424408571</v>
       </c>
       <c r="K18">
-        <v>1.023935664531892</v>
+        <v>1.034032904861146</v>
       </c>
       <c r="L18">
-        <v>0.9136608934393697</v>
+        <v>1.008546032525908</v>
       </c>
       <c r="M18">
-        <v>0.8499996287544304</v>
+        <v>1.015474416042096</v>
       </c>
       <c r="N18">
-        <v>0.9723285891158097</v>
+        <v>1.006751514656973</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.8738452650583612</v>
+        <v>1.001772807268429</v>
       </c>
       <c r="D19">
-        <v>1.01087600197189</v>
+        <v>1.030742870172838</v>
       </c>
       <c r="E19">
-        <v>0.8990501207911737</v>
+        <v>1.005247067019232</v>
       </c>
       <c r="F19">
-        <v>0.8349919872273287</v>
+        <v>1.012267345666863</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028117947456068</v>
+        <v>1.030981025849758</v>
       </c>
       <c r="J19">
-        <v>0.9065269880302502</v>
+        <v>1.008083157936056</v>
       </c>
       <c r="K19">
-        <v>1.024446054625055</v>
+        <v>1.034070596007121</v>
       </c>
       <c r="L19">
-        <v>0.9147975253612411</v>
+        <v>1.008665524824554</v>
       </c>
       <c r="M19">
-        <v>0.8523465043280972</v>
+        <v>1.015660317136884</v>
       </c>
       <c r="N19">
-        <v>0.9727456346248202</v>
+        <v>1.006794119538223</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.8669728642801707</v>
+        <v>1.001070104834426</v>
       </c>
       <c r="D20">
-        <v>1.008202981079133</v>
+        <v>1.030508626502234</v>
       </c>
       <c r="E20">
-        <v>0.8933660190940099</v>
+        <v>1.004643502349875</v>
       </c>
       <c r="F20">
-        <v>0.8234565617670965</v>
+        <v>1.011364704215827</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026024406533458</v>
+        <v>1.030867889135908</v>
       </c>
       <c r="J20">
-        <v>0.9008067414477268</v>
+        <v>1.007511030330386</v>
       </c>
       <c r="K20">
-        <v>1.022103108391096</v>
+        <v>1.033901463738561</v>
       </c>
       <c r="L20">
-        <v>0.9095845026591955</v>
+        <v>1.008130366656153</v>
       </c>
       <c r="M20">
-        <v>0.8415235612774664</v>
+        <v>1.014826623744802</v>
       </c>
       <c r="N20">
-        <v>0.970832380254764</v>
+        <v>1.00660327733337</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.8406129898572137</v>
+        <v>0.9987697599199871</v>
       </c>
       <c r="D21">
-        <v>0.9980109329741804</v>
+        <v>1.029737952937443</v>
       </c>
       <c r="E21">
-        <v>0.8715962754715164</v>
+        <v>1.002668190988459</v>
       </c>
       <c r="F21">
-        <v>0.7773575231970874</v>
+        <v>1.008389333911072</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.017804901111842</v>
+        <v>1.030489437870947</v>
       </c>
       <c r="J21">
-        <v>0.878703171199719</v>
+        <v>1.00563543109071</v>
       </c>
       <c r="K21">
-        <v>1.013030087080407</v>
+        <v>1.033341552873305</v>
       </c>
       <c r="L21">
-        <v>0.8895004247375247</v>
+        <v>1.00637695996403</v>
       </c>
       <c r="M21">
-        <v>0.7982816214838849</v>
+        <v>1.012075352574895</v>
       </c>
       <c r="N21">
-        <v>0.9634488542457748</v>
+        <v>1.005977432887551</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.8180459607222227</v>
+        <v>0.9973110149106639</v>
       </c>
       <c r="D22">
-        <v>0.98935055269992</v>
+        <v>1.029246324471902</v>
       </c>
       <c r="E22">
-        <v>0.8529839555803028</v>
+        <v>1.001415953192112</v>
       </c>
       <c r="F22">
-        <v>0.7349855817339357</v>
+        <v>1.006486702454022</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.010506321771192</v>
+        <v>1.030243262286456</v>
       </c>
       <c r="J22">
-        <v>0.8595302477898824</v>
+        <v>1.004443960108152</v>
       </c>
       <c r="K22">
-        <v>1.005135970969255</v>
+        <v>1.032981735023057</v>
       </c>
       <c r="L22">
-        <v>0.8721637245729202</v>
+        <v>1.005263878275918</v>
       </c>
       <c r="M22">
-        <v>0.7585905109592402</v>
+        <v>1.010313610194625</v>
       </c>
       <c r="N22">
-        <v>0.9570591183790406</v>
+        <v>1.005579707571113</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.8309432208964449</v>
+        <v>0.9980855224426762</v>
       </c>
       <c r="D23">
-        <v>0.9942942976490329</v>
+        <v>1.029507622107674</v>
       </c>
       <c r="E23">
-        <v>0.863619697716288</v>
+        <v>1.002080780307278</v>
       </c>
       <c r="F23">
-        <v>0.7595825736810534</v>
+        <v>1.007498388522827</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.014710008522299</v>
+        <v>1.030374549772223</v>
       </c>
       <c r="J23">
-        <v>0.8705202302917183</v>
+        <v>1.005076757190106</v>
       </c>
       <c r="K23">
-        <v>1.009664185086626</v>
+        <v>1.033173224012514</v>
       </c>
       <c r="L23">
-        <v>0.8820908311282748</v>
+        <v>1.005854969801251</v>
       </c>
       <c r="M23">
-        <v>0.7816218634300485</v>
+        <v>1.011250607151006</v>
       </c>
       <c r="N23">
-        <v>0.9607198481108252</v>
+        <v>1.005790956672896</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.8673590088033643</v>
+        <v>1.00110846443161</v>
       </c>
       <c r="D24">
-        <v>1.008352998830135</v>
+        <v>1.030521428182789</v>
       </c>
       <c r="E24">
-        <v>0.8936852909911602</v>
+        <v>1.004676448289491</v>
       </c>
       <c r="F24">
-        <v>0.8241095518494227</v>
+        <v>1.011414055048986</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026142573765298</v>
+        <v>1.030874095568423</v>
       </c>
       <c r="J24">
-        <v>0.9011285814464185</v>
+        <v>1.007542272153907</v>
       </c>
       <c r="K24">
-        <v>1.022234997332906</v>
+        <v>1.033910719993691</v>
       </c>
       <c r="L24">
-        <v>0.9098776421721114</v>
+        <v>1.00815958597955</v>
       </c>
       <c r="M24">
-        <v>0.8421362305723445</v>
+        <v>1.014872216859775</v>
       </c>
       <c r="N24">
-        <v>0.9709400022273125</v>
+        <v>1.006613699323814</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.8978810793477213</v>
+        <v>1.004564378265805</v>
       </c>
       <c r="D25">
-        <v>1.020271854064126</v>
+        <v>1.031667600895255</v>
       </c>
       <c r="E25">
-        <v>0.9189641425807605</v>
+        <v>1.0076455221356</v>
       </c>
       <c r="F25">
-        <v>0.8740122552443723</v>
+        <v>1.015823086429389</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035276650094807</v>
+        <v>1.03141845804117</v>
       </c>
       <c r="J25">
-        <v>0.9264120286787744</v>
+        <v>1.010352021319737</v>
       </c>
       <c r="K25">
-        <v>1.032563419988471</v>
+        <v>1.034733174019662</v>
       </c>
       <c r="L25">
-        <v>0.9329657756065328</v>
+        <v>1.010789243764403</v>
       </c>
       <c r="M25">
-        <v>0.8889417243036628</v>
+        <v>1.018939749993393</v>
       </c>
       <c r="N25">
-        <v>0.9794027259036762</v>
+        <v>1.007550623888328</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_124/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_124/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.007280975910814</v>
+        <v>0.9178310406019916</v>
       </c>
       <c r="D2">
-        <v>1.032557869945718</v>
+        <v>1.028110674581299</v>
       </c>
       <c r="E2">
-        <v>1.009980696467818</v>
+        <v>0.9355382793428549</v>
       </c>
       <c r="F2">
-        <v>1.019235045214043</v>
+        <v>0.9049972427066191</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031824640371513</v>
+        <v>1.041006252167727</v>
       </c>
       <c r="J2">
-        <v>1.012553531049677</v>
+        <v>0.9427816161347959</v>
       </c>
       <c r="K2">
-        <v>1.035362755253459</v>
+        <v>1.039191796338513</v>
       </c>
       <c r="L2">
-        <v>1.012852271110154</v>
+        <v>0.9479752354131801</v>
       </c>
       <c r="M2">
-        <v>1.022078895016406</v>
+        <v>0.9179605492086066</v>
       </c>
       <c r="N2">
-        <v>1.00828416421713</v>
+        <v>0.9848881644840219</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.009231370332541</v>
+        <v>0.9307011151415802</v>
       </c>
       <c r="D3">
-        <v>1.033190643017001</v>
+        <v>1.033173455451445</v>
       </c>
       <c r="E3">
-        <v>1.011657959203368</v>
+        <v>0.9462544041435201</v>
       </c>
       <c r="F3">
-        <v>1.021653614723384</v>
+        <v>0.9243645562342229</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.032103544889807</v>
+        <v>1.044582238900184</v>
       </c>
       <c r="J3">
-        <v>1.014129963555196</v>
+        <v>0.9532774011923201</v>
       </c>
       <c r="K3">
-        <v>1.035804796420873</v>
+        <v>1.043398766389509</v>
       </c>
       <c r="L3">
-        <v>1.014331060234558</v>
+        <v>0.957624517701556</v>
       </c>
       <c r="M3">
-        <v>1.024299017094116</v>
+        <v>0.9360663240716216</v>
       </c>
       <c r="N3">
-        <v>1.008809098177585</v>
+        <v>0.9884066557738818</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.010483495590752</v>
+        <v>0.9384537023452147</v>
       </c>
       <c r="D4">
-        <v>1.033593845226922</v>
+        <v>1.036220035783592</v>
       </c>
       <c r="E4">
-        <v>1.012735060703889</v>
+        <v>0.9527190007681507</v>
       </c>
       <c r="F4">
-        <v>1.023191958683203</v>
+        <v>0.9358015867974315</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.032276666823106</v>
+        <v>1.046683400934042</v>
       </c>
       <c r="J4">
-        <v>1.015140085664442</v>
+        <v>0.9595744888703641</v>
       </c>
       <c r="K4">
-        <v>1.036083910111618</v>
+        <v>1.045900119454458</v>
       </c>
       <c r="L4">
-        <v>1.015279319716399</v>
+        <v>0.9634236733939933</v>
       </c>
       <c r="M4">
-        <v>1.025708751043483</v>
+        <v>0.9467419913716344</v>
       </c>
       <c r="N4">
-        <v>1.009145302381481</v>
+        <v>0.9905177789668963</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011007560670793</v>
+        <v>0.9415937359249543</v>
       </c>
       <c r="D5">
-        <v>1.033761865532169</v>
+        <v>1.037452492349402</v>
       </c>
       <c r="E5">
-        <v>1.01318594758285</v>
+        <v>0.9553394443539336</v>
       </c>
       <c r="F5">
-        <v>1.023832383872346</v>
+        <v>0.9403849086172718</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.032347696831334</v>
+        <v>1.047521928299592</v>
       </c>
       <c r="J5">
-        <v>1.015562400652198</v>
+        <v>0.9621193875401587</v>
       </c>
       <c r="K5">
-        <v>1.036199602500027</v>
+        <v>1.04690516271684</v>
       </c>
       <c r="L5">
-        <v>1.015675939839855</v>
+        <v>0.965769522860371</v>
       </c>
       <c r="M5">
-        <v>1.026295055448888</v>
+        <v>0.9510161104054129</v>
       </c>
       <c r="N5">
-        <v>1.009285826336596</v>
+        <v>0.9913709496097416</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.011095418224029</v>
+        <v>0.9421144302938982</v>
       </c>
       <c r="D6">
-        <v>1.03378998999512</v>
+        <v>1.037656754679694</v>
       </c>
       <c r="E6">
-        <v>1.013261541533608</v>
+        <v>0.9557740956818123</v>
       </c>
       <c r="F6">
-        <v>1.023939547253839</v>
+        <v>0.9411421931255052</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.032359520674142</v>
+        <v>1.047660243255751</v>
       </c>
       <c r="J6">
-        <v>1.015633173041526</v>
+        <v>0.9625410741694364</v>
       </c>
       <c r="K6">
-        <v>1.036218931423452</v>
+        <v>1.047071340710402</v>
       </c>
       <c r="L6">
-        <v>1.015742416152548</v>
+        <v>0.9661583510471405</v>
       </c>
       <c r="M6">
-        <v>1.026393128454254</v>
+        <v>0.9517220611128132</v>
       </c>
       <c r="N6">
-        <v>1.009309373423025</v>
+        <v>0.9915123165886552</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.010490507264614</v>
+        <v>0.9384961066560455</v>
       </c>
       <c r="D7">
-        <v>1.033596096149165</v>
+        <v>1.036236686325869</v>
       </c>
       <c r="E7">
-        <v>1.012741092998537</v>
+        <v>0.952754380243322</v>
       </c>
       <c r="F7">
-        <v>1.023200540703013</v>
+        <v>0.9358636705396007</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.032277622796263</v>
+        <v>1.046694774462703</v>
       </c>
       <c r="J7">
-        <v>1.015145737803643</v>
+        <v>0.95960887810794</v>
       </c>
       <c r="K7">
-        <v>1.036085462458968</v>
+        <v>1.045913724502329</v>
       </c>
       <c r="L7">
-        <v>1.015284627297653</v>
+        <v>0.96345536439049</v>
       </c>
       <c r="M7">
-        <v>1.025716610114044</v>
+        <v>0.9467999033585992</v>
       </c>
       <c r="N7">
-        <v>1.009147183260029</v>
+        <v>0.9905293079998496</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.007942199917082</v>
+        <v>0.9223124438453981</v>
       </c>
       <c r="D8">
-        <v>1.032773017121833</v>
+        <v>1.029873718338557</v>
       </c>
       <c r="E8">
-        <v>1.010549255383179</v>
+        <v>0.9392674798490865</v>
       </c>
       <c r="F8">
-        <v>1.020057976543921</v>
+        <v>0.9117951939178103</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031920424327065</v>
+        <v>1.042263073033623</v>
       </c>
       <c r="J8">
-        <v>1.013088374342414</v>
+        <v>0.9464421119029074</v>
       </c>
       <c r="K8">
-        <v>1.035513582771571</v>
+        <v>1.040663682414703</v>
       </c>
       <c r="L8">
-        <v>1.013353839986636</v>
+        <v>0.9513381973453164</v>
       </c>
       <c r="M8">
-        <v>1.022834798766358</v>
+        <v>0.9243191884470628</v>
       </c>
       <c r="N8">
-        <v>1.008462293030155</v>
+        <v>0.9861151961757001</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.00337379917891</v>
+        <v>0.8881700024452847</v>
       </c>
       <c r="D9">
-        <v>1.031274382094596</v>
+        <v>1.01646761333068</v>
       </c>
       <c r="E9">
-        <v>1.006622461135669</v>
+        <v>0.9109116014460575</v>
       </c>
       <c r="F9">
-        <v>1.014312574460263</v>
+        <v>0.8584822286363082</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031234293847877</v>
+        <v>1.032415792128026</v>
       </c>
       <c r="J9">
-        <v>1.009385164455902</v>
+        <v>0.9183999134821181</v>
       </c>
       <c r="K9">
-        <v>1.034452452900573</v>
+        <v>1.02929904780594</v>
       </c>
       <c r="L9">
-        <v>1.009883947749325</v>
+        <v>0.9256368285763668</v>
       </c>
       <c r="M9">
-        <v>1.017547561299422</v>
+        <v>0.8743812439624734</v>
       </c>
       <c r="N9">
-        <v>1.007228308149759</v>
+        <v>0.9767194157766582</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.000272803540536</v>
+        <v>0.8586164462749108</v>
       </c>
       <c r="D10">
-        <v>1.030242168666808</v>
+        <v>1.004961621868502</v>
       </c>
       <c r="E10">
-        <v>1.003958771814581</v>
+        <v>0.8864596382827344</v>
       </c>
       <c r="F10">
-        <v>1.010336962073828</v>
+        <v>0.8091773966612356</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030738103098054</v>
+        <v>1.023451564427924</v>
       </c>
       <c r="J10">
-        <v>1.006861409425307</v>
+        <v>0.8938288225462443</v>
       </c>
       <c r="K10">
-        <v>1.03370846622473</v>
+        <v>1.019241866855691</v>
       </c>
       <c r="L10">
-        <v>1.007522896789279</v>
+        <v>0.9032336922955377</v>
       </c>
       <c r="M10">
-        <v>1.013876829237041</v>
+        <v>0.8281264029507919</v>
       </c>
       <c r="N10">
-        <v>1.006386549387825</v>
+        <v>0.9684997427718268</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.998916204734638</v>
+        <v>0.8425362789068896</v>
       </c>
       <c r="D11">
-        <v>1.02978718622272</v>
+        <v>0.9987514448597794</v>
       </c>
       <c r="E11">
-        <v>1.002793920926661</v>
+        <v>0.8731832419311362</v>
       </c>
       <c r="F11">
-        <v>1.00857967168641</v>
+        <v>0.7808321135180782</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030513891376141</v>
+        <v>1.01841510910424</v>
       </c>
       <c r="J11">
-        <v>1.005754956427701</v>
+        <v>0.8803255285846158</v>
       </c>
       <c r="K11">
-        <v>1.033377475559993</v>
+        <v>1.013696945575472</v>
       </c>
       <c r="L11">
-        <v>1.006488653839517</v>
+        <v>0.8909711843027591</v>
       </c>
       <c r="M11">
-        <v>1.012251495084205</v>
+        <v>0.8015394384879092</v>
       </c>
       <c r="N11">
-        <v>1.006017325018511</v>
+        <v>0.9639902179498607</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9984101612681098</v>
+        <v>0.8356851840470571</v>
       </c>
       <c r="D12">
-        <v>1.029616964015273</v>
+        <v>0.9961156161148869</v>
       </c>
       <c r="E12">
-        <v>1.002359471083953</v>
+        <v>0.867530919349612</v>
       </c>
       <c r="F12">
-        <v>1.00792143350884</v>
+        <v>0.7683648771661266</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030429188375601</v>
+        <v>1.016233438161994</v>
       </c>
       <c r="J12">
-        <v>1.005341865518827</v>
+        <v>0.8745386788894612</v>
       </c>
       <c r="K12">
-        <v>1.033253187668991</v>
+        <v>1.011317615091395</v>
       </c>
       <c r="L12">
-        <v>1.006102654443775</v>
+        <v>0.8857276634866298</v>
       </c>
       <c r="M12">
-        <v>1.011642268864958</v>
+        <v>0.789851757488093</v>
       </c>
       <c r="N12">
-        <v>1.005879448815885</v>
+        <v>0.9620596667531389</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.998518807271824</v>
+        <v>0.837207012361443</v>
       </c>
       <c r="D13">
-        <v>1.029653532789806</v>
+        <v>0.9967006387286971</v>
       </c>
       <c r="E13">
-        <v>1.00245274309825</v>
+        <v>0.8687862983194328</v>
       </c>
       <c r="F13">
-        <v>1.008062878813373</v>
+        <v>0.7711561859257682</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030447421999275</v>
+        <v>1.016719990960178</v>
       </c>
       <c r="J13">
-        <v>1.005430571071211</v>
+        <v>0.8758259891643951</v>
       </c>
       <c r="K13">
-        <v>1.033279908881378</v>
+        <v>1.011847076054456</v>
       </c>
       <c r="L13">
-        <v>1.006185536491193</v>
+        <v>0.88689348114755</v>
       </c>
       <c r="M13">
-        <v>1.011773200944679</v>
+        <v>0.7924680914065773</v>
       </c>
       <c r="N13">
-        <v>1.005909057054694</v>
+        <v>0.9624890145895859</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9988744190922028</v>
+        <v>0.8419920405380986</v>
       </c>
       <c r="D14">
-        <v>1.029773140612609</v>
+        <v>0.9985418540371238</v>
       </c>
       <c r="E14">
-        <v>1.002758045626582</v>
+        <v>0.8727341559493219</v>
       </c>
       <c r="F14">
-        <v>1.008525374473934</v>
+        <v>0.7798508497393811</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030506918872696</v>
+        <v>1.018242611930505</v>
       </c>
       <c r="J14">
-        <v>1.005720853467221</v>
+        <v>0.8798666131576062</v>
       </c>
       <c r="K14">
-        <v>1.033367229376763</v>
+        <v>1.01350832638216</v>
       </c>
       <c r="L14">
-        <v>1.006456784742672</v>
+        <v>0.8905550946693965</v>
       </c>
       <c r="M14">
-        <v>1.012201249228042</v>
+        <v>0.8006193588508606</v>
       </c>
       <c r="N14">
-        <v>1.006005943124385</v>
+        <v>0.9638370726829874</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9990932375086428</v>
+        <v>0.844803887517111</v>
       </c>
       <c r="D15">
-        <v>1.029846672603907</v>
+        <v>0.999625120042905</v>
       </c>
       <c r="E15">
-        <v>1.002945916168736</v>
+        <v>0.8750545497394369</v>
       </c>
       <c r="F15">
-        <v>1.008809600519427</v>
+        <v>0.7849043335857486</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030543388131654</v>
+        <v>1.019132358317596</v>
       </c>
       <c r="J15">
-        <v>1.005899425440834</v>
+        <v>0.8822362328492882</v>
       </c>
       <c r="K15">
-        <v>1.03342085195574</v>
+        <v>1.014482142571085</v>
       </c>
       <c r="L15">
-        <v>1.00662366502538</v>
+        <v>0.8927040584980571</v>
       </c>
       <c r="M15">
-        <v>1.012464250975716</v>
+        <v>0.805358024475551</v>
       </c>
       <c r="N15">
-        <v>1.006065540565665</v>
+        <v>0.9646279250853598</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.000362539562343</v>
+        <v>0.8595908760070085</v>
       </c>
       <c r="D16">
-        <v>1.030272193930344</v>
+        <v>1.005339086776983</v>
       </c>
       <c r="E16">
-        <v>1.004035833441335</v>
+        <v>0.8872647088327787</v>
       </c>
       <c r="F16">
-        <v>1.010452822751194</v>
+        <v>0.8108574170474706</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030752784884015</v>
+        <v>1.023753122046545</v>
       </c>
       <c r="J16">
-        <v>1.006934548893071</v>
+        <v>0.894643823476892</v>
       </c>
       <c r="K16">
-        <v>1.03373024547212</v>
+        <v>1.01957621041383</v>
       </c>
       <c r="L16">
-        <v>1.007591281406489</v>
+        <v>0.9039749664317797</v>
       </c>
       <c r="M16">
-        <v>1.013983931713174</v>
+        <v>0.8297025895077008</v>
       </c>
       <c r="N16">
-        <v>1.006410952254793</v>
+        <v>0.96877211194736</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.00115498896606</v>
+        <v>0.8678255479714659</v>
       </c>
       <c r="D17">
-        <v>1.030536952482703</v>
+        <v>1.008534277758025</v>
       </c>
       <c r="E17">
-        <v>1.004716407142918</v>
+        <v>0.8940710510286966</v>
       </c>
       <c r="F17">
-        <v>1.011473898474637</v>
+        <v>0.8248977105629742</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030881618362493</v>
+        <v>1.026285258215302</v>
       </c>
       <c r="J17">
-        <v>1.007580162315451</v>
+        <v>0.9015173583590533</v>
       </c>
       <c r="K17">
-        <v>1.033921942838366</v>
+        <v>1.022394306739795</v>
       </c>
       <c r="L17">
-        <v>1.008195023823701</v>
+        <v>0.9102317754018199</v>
       </c>
       <c r="M17">
-        <v>1.014927501793225</v>
+        <v>0.8428757216826962</v>
       </c>
       <c r="N17">
-        <v>1.006626339018693</v>
+        <v>0.9710700115490383</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.001615879541936</v>
+        <v>0.8723458587201306</v>
       </c>
       <c r="D18">
-        <v>1.03069060825557</v>
+        <v>1.010292254968839</v>
       </c>
       <c r="E18">
-        <v>1.005112272512519</v>
+        <v>0.8978096317150487</v>
       </c>
       <c r="F18">
-        <v>1.01206602658349</v>
+        <v>0.8324905545095043</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030955862909642</v>
+        <v>1.027662909780326</v>
       </c>
       <c r="J18">
-        <v>1.007955424408571</v>
+        <v>0.9052803316232968</v>
       </c>
       <c r="K18">
-        <v>1.034032904861146</v>
+        <v>1.023935664531892</v>
       </c>
       <c r="L18">
-        <v>1.008546032525908</v>
+        <v>0.9136608934393695</v>
       </c>
       <c r="M18">
-        <v>1.015474416042096</v>
+        <v>0.8499996287544299</v>
       </c>
       <c r="N18">
-        <v>1.006751514656973</v>
+        <v>0.9723285891158094</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.001772807268429</v>
+        <v>0.87384526505836</v>
       </c>
       <c r="D19">
-        <v>1.030742870172838</v>
+        <v>1.010876001971889</v>
       </c>
       <c r="E19">
-        <v>1.005247067019232</v>
+        <v>0.8990501207911726</v>
       </c>
       <c r="F19">
-        <v>1.012267345666863</v>
+        <v>0.8349919872273276</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030981025849758</v>
+        <v>1.028117947456068</v>
       </c>
       <c r="J19">
-        <v>1.008083157936056</v>
+        <v>0.9065269880302493</v>
       </c>
       <c r="K19">
-        <v>1.034070596007121</v>
+        <v>1.024446054625055</v>
       </c>
       <c r="L19">
-        <v>1.008665524824554</v>
+        <v>0.9147975253612401</v>
       </c>
       <c r="M19">
-        <v>1.015660317136884</v>
+        <v>0.8523465043280962</v>
       </c>
       <c r="N19">
-        <v>1.006794119538223</v>
+        <v>0.9727456346248199</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.001070104834426</v>
+        <v>0.8669728642801695</v>
       </c>
       <c r="D20">
-        <v>1.030508626502234</v>
+        <v>1.008202981079133</v>
       </c>
       <c r="E20">
-        <v>1.004643502349875</v>
+        <v>0.8933660190940088</v>
       </c>
       <c r="F20">
-        <v>1.011364704215827</v>
+        <v>0.8234565617670955</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030867889135908</v>
+        <v>1.026024406533458</v>
       </c>
       <c r="J20">
-        <v>1.007511030330386</v>
+        <v>0.9008067414477255</v>
       </c>
       <c r="K20">
-        <v>1.033901463738561</v>
+        <v>1.022103108391096</v>
       </c>
       <c r="L20">
-        <v>1.008130366656153</v>
+        <v>0.9095845026591943</v>
       </c>
       <c r="M20">
-        <v>1.014826623744802</v>
+        <v>0.8415235612774654</v>
       </c>
       <c r="N20">
-        <v>1.00660327733337</v>
+        <v>0.9708323802547638</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9987697599199871</v>
+        <v>0.8406129898572116</v>
       </c>
       <c r="D21">
-        <v>1.029737952937443</v>
+        <v>0.9980109329741795</v>
       </c>
       <c r="E21">
-        <v>1.002668190988459</v>
+        <v>0.8715962754715145</v>
       </c>
       <c r="F21">
-        <v>1.008389333911072</v>
+        <v>0.7773575231970824</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030489437870947</v>
+        <v>1.017804901111841</v>
       </c>
       <c r="J21">
-        <v>1.00563543109071</v>
+        <v>0.8787031711997167</v>
       </c>
       <c r="K21">
-        <v>1.033341552873305</v>
+        <v>1.013030087080406</v>
       </c>
       <c r="L21">
-        <v>1.00637695996403</v>
+        <v>0.8895004247375229</v>
       </c>
       <c r="M21">
-        <v>1.012075352574895</v>
+        <v>0.7982816214838799</v>
       </c>
       <c r="N21">
-        <v>1.005977432887551</v>
+        <v>0.9634488542457739</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9973110149106639</v>
+        <v>0.8180459607222192</v>
       </c>
       <c r="D22">
-        <v>1.029246324471902</v>
+        <v>0.9893505526999189</v>
       </c>
       <c r="E22">
-        <v>1.001415953192112</v>
+        <v>0.8529839555802998</v>
       </c>
       <c r="F22">
-        <v>1.006486702454022</v>
+        <v>0.7349855817339276</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030243262286456</v>
+        <v>1.010506321771191</v>
       </c>
       <c r="J22">
-        <v>1.004443960108152</v>
+        <v>0.8595302477898791</v>
       </c>
       <c r="K22">
-        <v>1.032981735023057</v>
+        <v>1.005135970969254</v>
       </c>
       <c r="L22">
-        <v>1.005263878275918</v>
+        <v>0.8721637245729171</v>
       </c>
       <c r="M22">
-        <v>1.010313610194625</v>
+        <v>0.7585905109592325</v>
       </c>
       <c r="N22">
-        <v>1.005579707571113</v>
+        <v>0.9570591183790397</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9980855224426762</v>
+        <v>0.8309432208964461</v>
       </c>
       <c r="D23">
-        <v>1.029507622107674</v>
+        <v>0.9942942976490338</v>
       </c>
       <c r="E23">
-        <v>1.002080780307278</v>
+        <v>0.8636196977162888</v>
       </c>
       <c r="F23">
-        <v>1.007498388522827</v>
+        <v>0.7595825736810562</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030374549772223</v>
+        <v>1.0147100085223</v>
       </c>
       <c r="J23">
-        <v>1.005076757190106</v>
+        <v>0.8705202302917194</v>
       </c>
       <c r="K23">
-        <v>1.033173224012514</v>
+        <v>1.009664185086627</v>
       </c>
       <c r="L23">
-        <v>1.005854969801251</v>
+        <v>0.8820908311282756</v>
       </c>
       <c r="M23">
-        <v>1.011250607151006</v>
+        <v>0.7816218634300512</v>
       </c>
       <c r="N23">
-        <v>1.005790956672896</v>
+        <v>0.9607198481108257</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.00110846443161</v>
+        <v>0.8673590088033633</v>
       </c>
       <c r="D24">
-        <v>1.030521428182789</v>
+        <v>1.008352998830135</v>
       </c>
       <c r="E24">
-        <v>1.004676448289491</v>
+        <v>0.8936852909911591</v>
       </c>
       <c r="F24">
-        <v>1.011414055048986</v>
+        <v>0.8241095518494208</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030874095568423</v>
+        <v>1.026142573765297</v>
       </c>
       <c r="J24">
-        <v>1.007542272153907</v>
+        <v>0.9011285814464174</v>
       </c>
       <c r="K24">
-        <v>1.033910719993691</v>
+        <v>1.022234997332905</v>
       </c>
       <c r="L24">
-        <v>1.00815958597955</v>
+        <v>0.9098776421721102</v>
       </c>
       <c r="M24">
-        <v>1.014872216859775</v>
+        <v>0.8421362305723427</v>
       </c>
       <c r="N24">
-        <v>1.006613699323814</v>
+        <v>0.9709400022273121</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.004564378265805</v>
+        <v>0.8978810793477203</v>
       </c>
       <c r="D25">
-        <v>1.031667600895255</v>
+        <v>1.020271854064127</v>
       </c>
       <c r="E25">
-        <v>1.0076455221356</v>
+        <v>0.918964142580759</v>
       </c>
       <c r="F25">
-        <v>1.015823086429389</v>
+        <v>0.8740122552443718</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03141845804117</v>
+        <v>1.035276650094808</v>
       </c>
       <c r="J25">
-        <v>1.010352021319737</v>
+        <v>0.9264120286787731</v>
       </c>
       <c r="K25">
-        <v>1.034733174019662</v>
+        <v>1.032563419988472</v>
       </c>
       <c r="L25">
-        <v>1.010789243764403</v>
+        <v>0.9329657756065316</v>
       </c>
       <c r="M25">
-        <v>1.018939749993393</v>
+        <v>0.8889417243036623</v>
       </c>
       <c r="N25">
-        <v>1.007550623888328</v>
+        <v>0.9794027259036758</v>
       </c>
     </row>
   </sheetData>
